--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\VismaAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68E7FF8-FE26-4B2B-96AB-B9E825BF4DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107ED0C9-1526-4957-B268-56B66CDF7C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>Task_Id</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">Create the edit page functionality </t>
+  </si>
+  <si>
+    <t>Incomplete</t>
   </si>
 </sst>
 </file>
@@ -332,7 +335,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -351,6 +354,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -731,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,6 +855,9 @@
       <c r="C8" t="s">
         <v>67</v>
       </c>
+      <c r="D8" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -889,6 +896,9 @@
       </c>
       <c r="C11" t="s">
         <v>75</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
